--- a/assets/school_data.xlsx
+++ b/assets/school_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimPUTRU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApplicationFlutter\school_list_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F65B95B-68F3-4A2A-897A-E469C82680C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C14004-BFE7-4236-93F6-D6845C8D2D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD33AAC4-DF59-439F-9E6E-D55AB5BA2B99}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="11170" xr2:uid="{BD33AAC4-DF59-439F-9E6E-D55AB5BA2B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>ŞAHİNBEY</t>
   </si>
   <si>
-    <t>OKUL 1</t>
-  </si>
-  <si>
     <t>ANAOKUL</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>MUDUR 16</t>
+  </si>
+  <si>
+    <t>Ayten Kemal Akınal Anadolu Lisesi</t>
   </si>
 </sst>
 </file>
@@ -313,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,31 +612,31 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -694,22 +694,22 @@
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="3">
         <v>14</v>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -735,22 +735,22 @@
         <v>123457</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2001</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="3">
         <v>15</v>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,22 +779,22 @@
         <v>123458</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>2002</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="3">
         <v>16</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -823,22 +823,22 @@
         <v>123459</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>2003</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>17</v>
@@ -856,30 +856,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>123460</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>2004</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="3">
         <v>18</v>
@@ -897,30 +897,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>123461</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>2005</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>19</v>
@@ -938,30 +938,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3">
         <v>123462</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>2006</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -979,30 +979,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
         <v>123463</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>2007</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3">
         <v>21</v>
@@ -1023,30 +1023,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>123464</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>2008</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I10" s="3">
         <v>22</v>
@@ -1067,30 +1067,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3">
         <v>123465</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
         <v>2009</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3">
         <v>23</v>
@@ -1105,30 +1105,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
         <v>123466</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>2010</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I12" s="3">
         <v>24</v>
@@ -1146,30 +1146,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3">
         <v>123467</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
         <v>2011</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3">
         <v>25</v>
@@ -1187,30 +1187,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>123468</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
         <v>2012</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I14" s="3">
         <v>26</v>
@@ -1228,30 +1228,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3">
         <v>123469</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>2013</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="3">
         <v>27</v>
@@ -1269,30 +1269,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3">
         <v>123470</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1">
         <v>2014</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I16" s="3">
         <v>28</v>
@@ -1310,30 +1310,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>123471</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>2015</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="3">
         <v>29</v>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
